--- a/Qualis-Bot-SalesNavigator/bin/Debug/InputEmpresas.xlsx
+++ b/Qualis-Bot-SalesNavigator/bin/Debug/InputEmpresas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Cruz Diana\Documents\GitHub\SalesBot\Qualis-Bot-SalesNavigator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066999D1-39C9-4BE0-B83D-9299FA59F42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B7D0D-5825-4E95-8DA2-54643109A839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,36 +25,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Banco Comafi</t>
+  </si>
+  <si>
+    <t>Banca</t>
+  </si>
+  <si>
+    <t>COELSA</t>
+  </si>
+  <si>
+    <t>Wego Digital Hub</t>
+  </si>
+  <si>
+    <t>Consultoría y servicios a empresas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmacity </t>
+  </si>
+  <si>
+    <t>Comercio al por menor</t>
+  </si>
+  <si>
+    <t>Central Market</t>
+  </si>
   <si>
     <t>Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trasnporte, logistica, cadena de suministro y almacenamiento </t>
-  </si>
-  <si>
-    <t>Interbroders</t>
-  </si>
-  <si>
-    <t>Qbox</t>
-  </si>
-  <si>
-    <t>clicOH</t>
-  </si>
-  <si>
-    <t>Pais</t>
-  </si>
-  <si>
-    <t>Industria</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>L'Oréal</t>
-  </si>
-  <si>
-    <t>Fabricación de productos de cuidado personal</t>
   </si>
 </sst>
 </file>
@@ -104,11 +110,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,10 +156,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -266,8 +270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B617815-3A76-44B5-A2B6-D9F75B15A732}" name="Tabla1" displayName="Tabla1" ref="A1:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C5" xr:uid="{8B617815-3A76-44B5-A2B6-D9F75B15A732}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B617815-3A76-44B5-A2B6-D9F75B15A732}" name="Tabla1" displayName="Tabla1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C7" xr:uid="{8B617815-3A76-44B5-A2B6-D9F75B15A732}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{242D0516-CC01-4CCE-9ED1-01A836079120}" name="Pais" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{0D46C9D5-3776-4F2D-8D3D-C3EC4CD13BD9}" name="Industria" dataDxfId="1"/>
@@ -543,7 +547,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,58 +559,74 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -693,7 +713,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://www.linkedin.com/sales/company/1662?_ntb=zsUcc5Y5T7W5Tj7%2FqpzHXw%3D%3D" xr:uid="{540734C5-5E0F-419A-914B-64386DE0C65C}"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://www.linkedin.com/sales/company/114223?_ntb=CJWm8AOUSLqD3uft92nRIw%3D%3D" xr:uid="{60623F5A-D1CD-4677-8B09-166BCE004206}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Qualis-Bot-SalesNavigator/bin/Debug/InputEmpresas.xlsx
+++ b/Qualis-Bot-SalesNavigator/bin/Debug/InputEmpresas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Cruz Diana\Documents\GitHub\SalesBot\Qualis-Bot-SalesNavigator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B7D0D-5825-4E95-8DA2-54643109A839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E84910-CC3C-4CB5-9864-A1E5669F2A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Pais</t>
   </si>
@@ -36,31 +36,28 @@
     <t>Empresa</t>
   </si>
   <si>
-    <t>Banco Comafi</t>
-  </si>
-  <si>
     <t>Banca</t>
   </si>
   <si>
-    <t>COELSA</t>
-  </si>
-  <si>
-    <t>Wego Digital Hub</t>
-  </si>
-  <si>
-    <t>Consultoría y servicios a empresas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farmacity </t>
-  </si>
-  <si>
-    <t>Comercio al por menor</t>
-  </si>
-  <si>
-    <t>Central Market</t>
-  </si>
-  <si>
     <t>Argentina</t>
+  </si>
+  <si>
+    <t>Banco Macro</t>
+  </si>
+  <si>
+    <t>San Cristobal Seguros</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>shipnow</t>
+  </si>
+  <si>
+    <t>Transporte, logística, cadena de suministro y almacenamiento</t>
+  </si>
+  <si>
+    <t>Banco Columbia S.A.</t>
   </si>
 </sst>
 </file>
@@ -111,9 +108,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <color rgb="FF0073B1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +155,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -547,7 +544,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,60 +565,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -713,7 +704,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://www.linkedin.com/sales/company/114223?_ntb=CJWm8AOUSLqD3uft92nRIw%3D%3D" xr:uid="{60623F5A-D1CD-4677-8B09-166BCE004206}"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://www.linkedin.com/sales/company/114223?_ntb=CJWm8AOUSLqD3uft92nRIw%3D%3D" xr:uid="{60623F5A-D1CD-4677-8B09-166BCE004206}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Qualis-Bot-SalesNavigator/bin/Debug/InputEmpresas.xlsx
+++ b/Qualis-Bot-SalesNavigator/bin/Debug/InputEmpresas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Cruz Diana\Documents\GitHub\SalesBot\Qualis-Bot-SalesNavigator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E84910-CC3C-4CB5-9864-A1E5669F2A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CC555F-68BA-4227-9318-2262E1081935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatosEmpresa" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Pais</t>
   </si>
@@ -36,35 +37,122 @@
     <t>Empresa</t>
   </si>
   <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>San Cristóbal Seguros</t>
+  </si>
+  <si>
+    <t>Servicios y consultoría de TI</t>
+  </si>
+  <si>
+    <t>Ingenia</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Galicia Seguros</t>
+  </si>
+  <si>
+    <t>Servicios financieros</t>
+  </si>
+  <si>
+    <t>Urbetrack</t>
+  </si>
+  <si>
+    <t>iQ Outsourcing</t>
+  </si>
+  <si>
+    <t>Comercio al por mayor</t>
+  </si>
+  <si>
+    <t>Diarco</t>
+  </si>
+  <si>
+    <t>oh! Gift Card</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Servicios medioambientales</t>
+  </si>
+  <si>
+    <t>Open Earth Foundation</t>
+  </si>
+  <si>
+    <t>TeleRed</t>
+  </si>
+  <si>
+    <t>Empresas escaneadas</t>
+  </si>
+  <si>
+    <t>Allianz Argentina</t>
+  </si>
+  <si>
+    <t>Alsea Sudamérica</t>
+  </si>
+  <si>
+    <t>Restauración</t>
+  </si>
+  <si>
+    <t>Aon</t>
+  </si>
+  <si>
+    <t>Andreani Grupo Logístico</t>
+  </si>
+  <si>
+    <t>Transporte, logística, cadena de suministro y almacenamiento</t>
+  </si>
+  <si>
+    <t>Consultoría de externalización y deslocalización</t>
+  </si>
+  <si>
+    <t>Apex America</t>
+  </si>
+  <si>
+    <t>ArcelorMittal Acindar</t>
+  </si>
+  <si>
+    <t>Minería</t>
+  </si>
+  <si>
+    <t>Arcos Dorados</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de alimentos y bebidas</t>
+  </si>
+  <si>
+    <t>Asociart ART</t>
+  </si>
+  <si>
+    <t>Balanz Capital</t>
+  </si>
+  <si>
+    <t>Gestión de inversiones</t>
+  </si>
+  <si>
+    <t>Ocio, viajes y turismo</t>
+  </si>
+  <si>
+    <t>ASSIST CARD</t>
+  </si>
+  <si>
     <t>Banca</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Banco Macro</t>
-  </si>
-  <si>
-    <t>San Cristobal Seguros</t>
-  </si>
-  <si>
-    <t>Seguros</t>
-  </si>
-  <si>
-    <t>shipnow</t>
-  </si>
-  <si>
-    <t>Transporte, logística, cadena de suministro y almacenamiento</t>
-  </si>
-  <si>
-    <t>Banco Columbia S.A.</t>
+    <t>Banco Credicoop Coop. Ltdo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,29 +187,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0073B1"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,12 +228,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,16 +271,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -267,8 +418,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B617815-3A76-44B5-A2B6-D9F75B15A732}" name="Tabla1" displayName="Tabla1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C7" xr:uid="{8B617815-3A76-44B5-A2B6-D9F75B15A732}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B617815-3A76-44B5-A2B6-D9F75B15A732}" name="Tabla1" displayName="Tabla1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C13" xr:uid="{8B617815-3A76-44B5-A2B6-D9F75B15A732}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{242D0516-CC01-4CCE-9ED1-01A836079120}" name="Pais" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{0D46C9D5-3776-4F2D-8D3D-C3EC4CD13BD9}" name="Industria" dataDxfId="1"/>
@@ -541,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,109 +705,154 @@
     <col min="3" max="3" width="39.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C4" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C9" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -703,13 +899,140 @@
       <c r="C31" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://www.linkedin.com/sales/company/114223?_ntb=CJWm8AOUSLqD3uft92nRIw%3D%3D" xr:uid="{60623F5A-D1CD-4677-8B09-166BCE004206}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D163E9-2B39-4F69-A1E9-8AE39D91639F}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>